--- a/artfynd/A 63942-2020.xlsx
+++ b/artfynd/A 63942-2020.xlsx
@@ -815,10 +815,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>96248714</v>
+        <v>96249095</v>
       </c>
       <c r="B3" t="n">
-        <v>93158</v>
+        <v>84764</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -831,27 +831,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2818</v>
+        <v>2979</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Lömsk flugsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Amanita phalloides</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
+          <t>(Fr.:Fr.) Link</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -859,13 +858,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>357820.03685552</v>
+        <v>357682.2334978259</v>
       </c>
       <c r="R3" t="n">
-        <v>6218894.969765531</v>
+        <v>6219057.497064481</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -932,10 +931,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>96249095</v>
+        <v>96249326</v>
       </c>
       <c r="B4" t="n">
-        <v>84764</v>
+        <v>29897</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -948,26 +947,28 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2979</v>
+        <v>200985</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lömsk flugsvamp</t>
+          <t>Blanksvart trämyra</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Amanita phalloides</t>
+          <t>Lasius fuliginosus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Link</t>
+          <t>(Latreille, 1798)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -975,10 +976,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>357682.2334978259</v>
+        <v>357894.3220299328</v>
       </c>
       <c r="R4" t="n">
-        <v>6219057.497064481</v>
+        <v>6219043.772112061</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1021,6 +1022,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Grov ask, i stamhål vid basen</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1048,10 +1054,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>96248725</v>
+        <v>96306278</v>
       </c>
       <c r="B5" t="n">
-        <v>87094</v>
+        <v>90005</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1060,25 +1066,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5114</v>
+        <v>1339</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bokhätta</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Mycena fagetorum</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Gillet</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1091,13 +1097,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>357820.03685552</v>
+        <v>357673.5984879184</v>
       </c>
       <c r="R5" t="n">
-        <v>6218894.969765531</v>
+        <v>6219185.040684337</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1121,7 +1127,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2021-09-25</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1131,12 +1137,17 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2021-09-25</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Bekräftad med KOH</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1164,10 +1175,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>96249326</v>
+        <v>96306298</v>
       </c>
       <c r="B6" t="n">
-        <v>29897</v>
+        <v>92931</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1180,28 +1191,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>200985</v>
+        <v>2755</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blanksvart trämyra</t>
+          <t>Skuggsprötmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lasius fuliginosus</t>
+          <t>Eurhynchium striatum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Latreille, 1798)</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1209,10 +1219,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>357894.3220299328</v>
+        <v>357702.0900582634</v>
       </c>
       <c r="R6" t="n">
-        <v>6219043.772112061</v>
+        <v>6219116.560785788</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1239,7 +1249,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2021-09-25</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1249,17 +1259,12 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2021-09-25</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Grov ask, i stamhål vid basen</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1287,10 +1292,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>96306278</v>
+        <v>96306289</v>
       </c>
       <c r="B7" t="n">
-        <v>90005</v>
+        <v>86218</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1299,25 +1304,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1339</v>
+        <v>825</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Bokvaxskivling</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Hygrophorus mesotephrus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>Berk. &amp; Broome</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1330,10 +1335,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>357673.5984879184</v>
+        <v>357620.9788055106</v>
       </c>
       <c r="R7" t="n">
-        <v>6219185.040684337</v>
+        <v>6219065.668260341</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1376,11 +1381,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Bekräftad med KOH</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1408,10 +1408,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96306298</v>
+        <v>96346664</v>
       </c>
       <c r="B8" t="n">
-        <v>92931</v>
+        <v>83939</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1420,31 +1420,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2755</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Skuggsprötmossa</t>
-        </is>
+        <v>258917</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Eurhynchium striatum</t>
+          <t>Hypoxylon petriniae</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>M.Stadler &amp; J.Fourn.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1452,10 +1446,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>357702.0900582634</v>
+        <v>357800.846203462</v>
       </c>
       <c r="R8" t="n">
-        <v>6219116.560785788</v>
+        <v>6218991.052147714</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1482,7 +1476,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2021-09-25</t>
+          <t>2021-09-27</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1492,12 +1486,17 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2021-09-25</t>
+          <t>2021-09-27</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>På askgren</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1518,17 +1517,17 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Lars Salomon</t>
+          <t>Lars Salomon, Stefan Phalagorn Bergström</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96306289</v>
+        <v>96346661</v>
       </c>
       <c r="B9" t="n">
-        <v>86218</v>
+        <v>77617</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1541,21 +1540,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>825</v>
+        <v>1029</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bokvaxskivling</t>
+          <t>Elegant sköldlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hygrophorus mesotephrus</t>
+          <t>Melanohalea elegantula</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Berk. &amp; Broome</t>
+          <t>(Zahlbr.) O.Blanco et al.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1568,10 +1567,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>357620.9788055106</v>
+        <v>357800.846203462</v>
       </c>
       <c r="R9" t="n">
-        <v>6219065.668260341</v>
+        <v>6218991.052147714</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1598,7 +1597,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2021-09-25</t>
+          <t>2021-09-27</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1608,12 +1607,17 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2021-09-25</t>
+          <t>2021-09-27</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Flera bålar på stamdelar och grenar på nertagen ask</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1634,17 +1638,17 @@
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Lars Salomon</t>
+          <t>Lars Salomon, Stefan Phalagorn Bergström</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>96346664</v>
+        <v>96346683</v>
       </c>
       <c r="B10" t="n">
-        <v>83939</v>
+        <v>79158</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1653,20 +1657,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>258917</v>
+        <v>1223</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Rikfruktig blemlav</t>
+        </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hypoxylon petriniae</t>
+          <t>Phlyctis agelaea</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>M.Stadler &amp; J.Fourn.</t>
+          <t>(Ach.) Flot.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1679,10 +1688,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>357800.846203462</v>
+        <v>357825.6327631653</v>
       </c>
       <c r="R10" t="n">
-        <v>6218991.052147714</v>
+        <v>6219063.907730268</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1729,7 +1738,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>På askgren</t>
+          <t>Flertal bålar på avenbok</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1757,10 +1766,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>96346661</v>
+        <v>96389329</v>
       </c>
       <c r="B11" t="n">
-        <v>77617</v>
+        <v>89783</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1773,21 +1782,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1029</v>
+        <v>2023</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Elegant sköldlav</t>
+          <t>Sydlig sotticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Melanohalea elegantula</t>
+          <t>Ischnoderma resinosum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Zahlbr.) O.Blanco et al.</t>
+          <t>(Schrad.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1800,13 +1809,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>357800.846203462</v>
+        <v>357680.9457938336</v>
       </c>
       <c r="R11" t="n">
-        <v>6218991.052147714</v>
+        <v>6219221.075848538</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1846,11 +1855,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Flera bålar på stamdelar och grenar på nertagen ask</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1866,22 +1870,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Lars Salomon</t>
+          <t>Stefan Phalagorn Bergström</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Lars Salomon, Stefan Phalagorn Bergström</t>
+          <t>Stefan Phalagorn Bergström, Lars Salomon</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>96346683</v>
+        <v>96390230</v>
       </c>
       <c r="B12" t="n">
-        <v>79158</v>
+        <v>83837</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1890,25 +1894,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1223</v>
+        <v>3815</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rikfruktig blemlav</t>
+          <t>Tusengömming</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phlyctis agelaea</t>
+          <t>Cryptosphaeria eunomia</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Flot.</t>
+          <t>(Fr.:Fr.) Fuckel</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1921,10 +1925,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>357825.6327631653</v>
+        <v>357733.0731390288</v>
       </c>
       <c r="R12" t="n">
-        <v>6219063.907730268</v>
+        <v>6219140.092055356</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1969,11 +1973,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Flertal bålar på avenbok</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -1987,22 +1986,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Lars Salomon</t>
+          <t>Stefan Phalagorn Bergström</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Lars Salomon, Stefan Phalagorn Bergström</t>
+          <t>Stefan Phalagorn Bergström, Lars Salomon</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>96389329</v>
+        <v>96424667</v>
       </c>
       <c r="B13" t="n">
-        <v>89783</v>
+        <v>85002</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2011,25 +2010,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2023</v>
+        <v>3295</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Sydlig sotticka</t>
+          <t>Hagfingersvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ischnoderma resinosum</t>
+          <t>Clavulinopsis helvola</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schrad.) P.Karst.</t>
+          <t>(Pers.:Fr.) Corner</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2042,13 +2041,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>357680.9457938336</v>
+        <v>357733.0731390288</v>
       </c>
       <c r="R13" t="n">
-        <v>6219221.075848538</v>
+        <v>6219140.092055356</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2115,10 +2114,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>96390230</v>
+        <v>96346720</v>
       </c>
       <c r="B14" t="n">
-        <v>83837</v>
+        <v>77617</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2131,21 +2130,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3815</v>
+        <v>1029</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tusengömming</t>
+          <t>Elegant sköldlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Cryptosphaeria eunomia</t>
+          <t>Melanohalea elegantula</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fuckel</t>
+          <t>(Zahlbr.) O.Blanco et al.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2158,10 +2157,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>357733.0731390288</v>
+        <v>357773.8212584844</v>
       </c>
       <c r="R14" t="n">
-        <v>6219140.092055356</v>
+        <v>6219137.625295865</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2206,6 +2205,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>På stamdelar och grenar på avverkad ask.</t>
+        </is>
+      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
@@ -2219,22 +2223,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Stefan Phalagorn Bergström</t>
+          <t>Lars Salomon</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Stefan Phalagorn Bergström, Lars Salomon</t>
+          <t>Lars Salomon, Stefan Phalagorn Bergström</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>96424667</v>
+        <v>108112309</v>
       </c>
       <c r="B15" t="n">
-        <v>85002</v>
+        <v>56779</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2243,44 +2247,49 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3295</v>
+        <v>103037</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Hagfingersvamp</t>
+          <t>Stare</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Clavulinopsis helvola</t>
+          <t>Sturnus vulgaris</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Corner</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Småryd, Sk</t>
+          <t>Helsingborg, Sk</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>357733.0731390288</v>
+        <v>357757.7060457985</v>
       </c>
       <c r="R15" t="n">
-        <v>6219140.092055356</v>
+        <v>6219090.158776901</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2304,22 +2313,22 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2021-09-27</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:46</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2021-09-27</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2328,29 +2337,28 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Stefan Phalagorn Bergström</t>
+          <t>Per Muhr</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Stefan Phalagorn Bergström, Lars Salomon</t>
+          <t>Per Muhr</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>96346720</v>
+        <v>108112303</v>
       </c>
       <c r="B16" t="n">
-        <v>77617</v>
+        <v>56522</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2363,40 +2371,45 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1029</v>
+        <v>205976</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Elegant sköldlav</t>
+          <t>Gråkråka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Melanohalea elegantula</t>
+          <t>Corvus corone cornix</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Zahlbr.) O.Blanco et al.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Småryd, Sk</t>
+          <t>Helsingborg, Sk</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>357773.8212584844</v>
+        <v>357757.7060457985</v>
       </c>
       <c r="R16" t="n">
-        <v>6219137.625295865</v>
+        <v>6219090.158776901</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2420,27 +2433,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2021-09-27</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:46</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2021-09-27</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>På stamdelar och grenar på avverkad ask.</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2449,29 +2457,28 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Lars Salomon</t>
+          <t>Per Muhr</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Lars Salomon, Stefan Phalagorn Bergström</t>
+          <t>Per Muhr</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>108112309</v>
+        <v>108112314</v>
       </c>
       <c r="B17" t="n">
-        <v>56779</v>
+        <v>57007</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2480,25 +2487,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>103037</v>
+        <v>103042</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Stare</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Sturnus vulgaris</t>
+          <t>Chloris chloris</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2588,10 +2595,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>108112303</v>
+        <v>96248714</v>
       </c>
       <c r="B18" t="n">
-        <v>56522</v>
+        <v>93158</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2600,49 +2607,45 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>205976</v>
+        <v>2818</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gråkråka</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Corvus corone cornix</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Brid.) Z.Iwats.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Helsingborg, Sk</t>
+          <t>Småryd, Sk</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>357757.7060457985</v>
+        <v>357820.03685552</v>
       </c>
       <c r="R18" t="n">
-        <v>6219090.158776901</v>
+        <v>6218894.969765531</v>
       </c>
       <c r="S18" t="n">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2666,22 +2669,22 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>10:46</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2690,28 +2693,29 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Per Muhr</t>
+          <t>Lars Salomon</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Per Muhr</t>
+          <t>Lars Salomon</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>108112314</v>
+        <v>96248725</v>
       </c>
       <c r="B19" t="n">
-        <v>57007</v>
+        <v>87094</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2720,49 +2724,44 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>103042</v>
+        <v>5114</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Bokhätta</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chloris chloris</t>
+          <t>Mycena fagetorum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Fr.) Gillet</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Helsingborg, Sk</t>
+          <t>Småryd, Sk</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>357757.7060457985</v>
+        <v>357820.03685552</v>
       </c>
       <c r="R19" t="n">
-        <v>6219090.158776901</v>
+        <v>6218894.969765531</v>
       </c>
       <c r="S19" t="n">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2786,22 +2785,22 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>10:46</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2810,18 +2809,19 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Per Muhr</t>
+          <t>Lars Salomon</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Per Muhr</t>
+          <t>Lars Salomon</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>

--- a/artfynd/A 63942-2020.xlsx
+++ b/artfynd/A 63942-2020.xlsx
@@ -815,10 +815,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>96249095</v>
+        <v>96248714</v>
       </c>
       <c r="B3" t="n">
-        <v>84764</v>
+        <v>93158</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -831,26 +831,27 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2979</v>
+        <v>2818</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lömsk flugsvamp</t>
+          <t>Stubbspretmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Amanita phalloides</t>
+          <t>Herzogiella seligeri</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Link</t>
+          <t>(Brid.) Z.Iwats.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -858,13 +859,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>357682.2334978259</v>
+        <v>357820.03685552</v>
       </c>
       <c r="R3" t="n">
-        <v>6219057.497064481</v>
+        <v>6218894.969765531</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -931,10 +932,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>96249326</v>
+        <v>96249095</v>
       </c>
       <c r="B4" t="n">
-        <v>29897</v>
+        <v>84764</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -947,28 +948,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>200985</v>
+        <v>2979</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blanksvart trämyra</t>
+          <t>Lömsk flugsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lasius fuliginosus</t>
+          <t>Amanita phalloides</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Latreille, 1798)</t>
+          <t>(Fr.:Fr.) Link</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -976,10 +975,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>357894.3220299328</v>
+        <v>357682.2334978259</v>
       </c>
       <c r="R4" t="n">
-        <v>6219043.772112061</v>
+        <v>6219057.497064481</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1022,11 +1021,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Grov ask, i stamhål vid basen</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1054,10 +1048,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>96306278</v>
+        <v>96248725</v>
       </c>
       <c r="B5" t="n">
-        <v>90005</v>
+        <v>87094</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1066,25 +1060,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1339</v>
+        <v>5114</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Bokhätta</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Mycena fagetorum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(Fr.) Gillet</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1097,13 +1091,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>357673.5984879184</v>
+        <v>357820.03685552</v>
       </c>
       <c r="R5" t="n">
-        <v>6219185.040684337</v>
+        <v>6218894.969765531</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1127,7 +1121,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2021-09-25</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1137,17 +1131,12 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2021-09-25</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Bekräftad med KOH</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1175,10 +1164,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>96306298</v>
+        <v>96249326</v>
       </c>
       <c r="B6" t="n">
-        <v>92931</v>
+        <v>29897</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1191,27 +1180,28 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2755</v>
+        <v>200985</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skuggsprötmossa</t>
+          <t>Blanksvart trämyra</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Eurhynchium striatum</t>
+          <t>Lasius fuliginosus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hedw.) Schimp.</t>
+          <t>(Latreille, 1798)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1219,10 +1209,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>357702.0900582634</v>
+        <v>357894.3220299328</v>
       </c>
       <c r="R6" t="n">
-        <v>6219116.560785788</v>
+        <v>6219043.772112061</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1249,7 +1239,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2021-09-25</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1259,12 +1249,17 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2021-09-25</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Grov ask, i stamhål vid basen</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1292,10 +1287,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>96306289</v>
+        <v>96306278</v>
       </c>
       <c r="B7" t="n">
-        <v>86218</v>
+        <v>90005</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1304,25 +1299,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>825</v>
+        <v>1339</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bokvaxskivling</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hygrophorus mesotephrus</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Berk. &amp; Broome</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1335,10 +1330,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>357620.9788055106</v>
+        <v>357673.5984879184</v>
       </c>
       <c r="R7" t="n">
-        <v>6219065.668260341</v>
+        <v>6219185.040684337</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1381,6 +1376,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Bekräftad med KOH</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1408,10 +1408,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96346664</v>
+        <v>96306298</v>
       </c>
       <c r="B8" t="n">
-        <v>83939</v>
+        <v>92931</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1420,25 +1420,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>258917</v>
+        <v>2755</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Skuggsprötmossa</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hypoxylon petriniae</t>
+          <t>Eurhynchium striatum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>M.Stadler &amp; J.Fourn.</t>
+          <t>(Hedw.) Schimp.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1446,10 +1452,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>357800.846203462</v>
+        <v>357702.0900582634</v>
       </c>
       <c r="R8" t="n">
-        <v>6218991.052147714</v>
+        <v>6219116.560785788</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1476,7 +1482,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2021-09-27</t>
+          <t>2021-09-25</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1486,17 +1492,12 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2021-09-27</t>
+          <t>2021-09-25</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>På askgren</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1517,17 +1518,17 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Lars Salomon, Stefan Phalagorn Bergström</t>
+          <t>Lars Salomon</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96346661</v>
+        <v>96306289</v>
       </c>
       <c r="B9" t="n">
-        <v>77617</v>
+        <v>86218</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1540,21 +1541,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1029</v>
+        <v>825</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Elegant sköldlav</t>
+          <t>Bokvaxskivling</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Melanohalea elegantula</t>
+          <t>Hygrophorus mesotephrus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Zahlbr.) O.Blanco et al.</t>
+          <t>Berk. &amp; Broome</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1567,10 +1568,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>357800.846203462</v>
+        <v>357620.9788055106</v>
       </c>
       <c r="R9" t="n">
-        <v>6218991.052147714</v>
+        <v>6219065.668260341</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1597,7 +1598,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2021-09-27</t>
+          <t>2021-09-25</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1607,17 +1608,12 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2021-09-27</t>
+          <t>2021-09-25</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Flera bålar på stamdelar och grenar på nertagen ask</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1638,17 +1634,17 @@
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Lars Salomon, Stefan Phalagorn Bergström</t>
+          <t>Lars Salomon</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>96346683</v>
+        <v>96346664</v>
       </c>
       <c r="B10" t="n">
-        <v>79158</v>
+        <v>83939</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1657,25 +1653,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1223</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Rikfruktig blemlav</t>
-        </is>
+        <v>258917</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phlyctis agelaea</t>
+          <t>Hypoxylon petriniae</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Flot.</t>
+          <t>M.Stadler &amp; J.Fourn.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1688,10 +1679,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>357825.6327631653</v>
+        <v>357800.846203462</v>
       </c>
       <c r="R10" t="n">
-        <v>6219063.907730268</v>
+        <v>6218991.052147714</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1738,7 +1729,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Flertal bålar på avenbok</t>
+          <t>På askgren</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1766,10 +1757,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>96389329</v>
+        <v>96346661</v>
       </c>
       <c r="B11" t="n">
-        <v>89783</v>
+        <v>77617</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1782,21 +1773,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2023</v>
+        <v>1029</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sydlig sotticka</t>
+          <t>Elegant sköldlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Ischnoderma resinosum</t>
+          <t>Melanohalea elegantula</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Schrad.) P.Karst.</t>
+          <t>(Zahlbr.) O.Blanco et al.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1809,13 +1800,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>357680.9457938336</v>
+        <v>357800.846203462</v>
       </c>
       <c r="R11" t="n">
-        <v>6219221.075848538</v>
+        <v>6218991.052147714</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1855,6 +1846,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Flera bålar på stamdelar och grenar på nertagen ask</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1870,22 +1866,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Stefan Phalagorn Bergström</t>
+          <t>Lars Salomon</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Stefan Phalagorn Bergström, Lars Salomon</t>
+          <t>Lars Salomon, Stefan Phalagorn Bergström</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>96390230</v>
+        <v>96346683</v>
       </c>
       <c r="B12" t="n">
-        <v>83837</v>
+        <v>79158</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1894,25 +1890,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3815</v>
+        <v>1223</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tusengömming</t>
+          <t>Rikfruktig blemlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cryptosphaeria eunomia</t>
+          <t>Phlyctis agelaea</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) Fuckel</t>
+          <t>(Ach.) Flot.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1925,10 +1921,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>357733.0731390288</v>
+        <v>357825.6327631653</v>
       </c>
       <c r="R12" t="n">
-        <v>6219140.092055356</v>
+        <v>6219063.907730268</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1973,6 +1969,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Flertal bålar på avenbok</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -1986,22 +1987,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Stefan Phalagorn Bergström</t>
+          <t>Lars Salomon</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Stefan Phalagorn Bergström, Lars Salomon</t>
+          <t>Lars Salomon, Stefan Phalagorn Bergström</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>96424667</v>
+        <v>96389329</v>
       </c>
       <c r="B13" t="n">
-        <v>85002</v>
+        <v>89783</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2010,25 +2011,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3295</v>
+        <v>2023</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Hagfingersvamp</t>
+          <t>Sydlig sotticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Clavulinopsis helvola</t>
+          <t>Ischnoderma resinosum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Corner</t>
+          <t>(Schrad.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2041,13 +2042,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>357733.0731390288</v>
+        <v>357680.9457938336</v>
       </c>
       <c r="R13" t="n">
-        <v>6219140.092055356</v>
+        <v>6219221.075848538</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2114,10 +2115,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>96346720</v>
+        <v>96390230</v>
       </c>
       <c r="B14" t="n">
-        <v>77617</v>
+        <v>83837</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2130,21 +2131,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1029</v>
+        <v>3815</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Elegant sköldlav</t>
+          <t>Tusengömming</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Melanohalea elegantula</t>
+          <t>Cryptosphaeria eunomia</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Zahlbr.) O.Blanco et al.</t>
+          <t>(Fr.:Fr.) Fuckel</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2157,10 +2158,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>357773.8212584844</v>
+        <v>357733.0731390288</v>
       </c>
       <c r="R14" t="n">
-        <v>6219137.625295865</v>
+        <v>6219140.092055356</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2205,11 +2206,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>På stamdelar och grenar på avverkad ask.</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
@@ -2223,22 +2219,22 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Lars Salomon</t>
+          <t>Stefan Phalagorn Bergström</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Lars Salomon, Stefan Phalagorn Bergström</t>
+          <t>Stefan Phalagorn Bergström, Lars Salomon</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>108112309</v>
+        <v>96424667</v>
       </c>
       <c r="B15" t="n">
-        <v>56779</v>
+        <v>85002</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2247,49 +2243,44 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>103037</v>
+        <v>3295</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Stare</t>
+          <t>Hagfingersvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sturnus vulgaris</t>
+          <t>Clavulinopsis helvola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Pers.:Fr.) Corner</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Helsingborg, Sk</t>
+          <t>Småryd, Sk</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>357757.7060457985</v>
+        <v>357733.0731390288</v>
       </c>
       <c r="R15" t="n">
-        <v>6219090.158776901</v>
+        <v>6219140.092055356</v>
       </c>
       <c r="S15" t="n">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2313,22 +2304,22 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2021-09-27</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>10:46</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2021-09-27</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2337,28 +2328,29 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Per Muhr</t>
+          <t>Stefan Phalagorn Bergström</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Per Muhr</t>
+          <t>Stefan Phalagorn Bergström, Lars Salomon</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>108112303</v>
+        <v>96346720</v>
       </c>
       <c r="B16" t="n">
-        <v>56522</v>
+        <v>77617</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2371,45 +2363,40 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>205976</v>
+        <v>1029</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gråkråka</t>
+          <t>Elegant sköldlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Corvus corone cornix</t>
+          <t>Melanohalea elegantula</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Zahlbr.) O.Blanco et al.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Helsingborg, Sk</t>
+          <t>Småryd, Sk</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>357757.7060457985</v>
+        <v>357773.8212584844</v>
       </c>
       <c r="R16" t="n">
-        <v>6219090.158776901</v>
+        <v>6219137.625295865</v>
       </c>
       <c r="S16" t="n">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2433,22 +2420,27 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2021-09-27</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>10:46</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2021-09-27</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>På stamdelar och grenar på avverkad ask.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2457,28 +2449,29 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Per Muhr</t>
+          <t>Lars Salomon</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Per Muhr</t>
+          <t>Lars Salomon, Stefan Phalagorn Bergström</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>108112314</v>
+        <v>108112309</v>
       </c>
       <c r="B17" t="n">
-        <v>57007</v>
+        <v>56779</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2487,25 +2480,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>103042</v>
+        <v>103037</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Grönfink</t>
+          <t>Stare</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chloris chloris</t>
+          <t>Sturnus vulgaris</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2595,10 +2588,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>96248714</v>
+        <v>108112303</v>
       </c>
       <c r="B18" t="n">
-        <v>93158</v>
+        <v>56522</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2607,45 +2600,49 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2818</v>
+        <v>205976</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Stubbspretmossa</t>
+          <t>Gråkråka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Herzogiella seligeri</t>
+          <t>Corvus corone cornix</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Brid.) Z.Iwats.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Småryd, Sk</t>
+          <t>Helsingborg, Sk</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>357820.03685552</v>
+        <v>357757.7060457985</v>
       </c>
       <c r="R18" t="n">
-        <v>6218894.969765531</v>
+        <v>6219090.158776901</v>
       </c>
       <c r="S18" t="n">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2669,22 +2666,22 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:46</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2693,29 +2690,28 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Lars Salomon</t>
+          <t>Per Muhr</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Lars Salomon</t>
+          <t>Per Muhr</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>96248725</v>
+        <v>108112314</v>
       </c>
       <c r="B19" t="n">
-        <v>87094</v>
+        <v>57007</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2724,44 +2720,49 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5114</v>
+        <v>103042</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bokhätta</t>
+          <t>Grönfink</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Mycena fagetorum</t>
+          <t>Chloris chloris</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Gillet</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Småryd, Sk</t>
+          <t>Helsingborg, Sk</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>357820.03685552</v>
+        <v>357757.7060457985</v>
       </c>
       <c r="R19" t="n">
-        <v>6218894.969765531</v>
+        <v>6219090.158776901</v>
       </c>
       <c r="S19" t="n">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2785,22 +2786,22 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:46</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2809,19 +2810,18 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Lars Salomon</t>
+          <t>Per Muhr</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Lars Salomon</t>
+          <t>Per Muhr</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
